--- a/График.xlsx
+++ b/График.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Svalkash\Desktop\HST-Potapov-1\HST-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BE6EB9-8C66-42C7-A035-B989E7E38471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BF91D6-D35E-4B74-898F-019771042135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97C02EC0-2333-407A-9E26-27B098D32470}"/>
   </bookViews>
@@ -36,7 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Размер</t>
+  </si>
+  <si>
+    <t>OpenMP</t>
+  </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>Seq</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -105,6 +118,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>C</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>равнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> времени расчёта</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -144,7 +191,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Время</c:v>
+            <c:strRef>
+              <c:f>Лист1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Seq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -172,7 +227,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$1:$A$7</c:f>
+              <c:f>Лист1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -202,30 +257,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$1:$B$7</c:f>
+              <c:f>Лист1!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.6800000000000002E-3</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1335E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2720000000000001E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6483999999999998E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0603000000000003E-2</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.181946</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36306899999999998</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -234,6 +289,216 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5C49-4AEB-A1F4-467055D0BFAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30199999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BBB5-410D-AFE4-9B37DA1E4517}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BBB5-410D-AFE4-9B37DA1E4517}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -255,6 +520,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -360,6 +639,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -951,16 +1261,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>606670</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>182806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>301870</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>68506</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1285,68 +1595,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805DDB5F-FF2B-45B4-8D18-DC05C3407E14}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>16</v>
       </c>
-      <c r="B1">
-        <v>5.6800000000000002E-3</v>
+      <c r="B2">
+        <v>0.01</v>
+      </c>
+      <c r="C2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D2">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>32</v>
       </c>
-      <c r="B2">
-        <v>1.1335E-2</v>
+      <c r="B3">
+        <v>0.02</v>
+      </c>
+      <c r="C3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>64</v>
       </c>
-      <c r="B3">
-        <v>2.2720000000000001E-2</v>
+      <c r="B4">
+        <v>0.04</v>
+      </c>
+      <c r="C4">
+        <v>0.03</v>
+      </c>
+      <c r="D4">
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>128</v>
       </c>
-      <c r="B4">
-        <v>4.6483999999999998E-2</v>
+      <c r="B5">
+        <v>0.08</v>
+      </c>
+      <c r="C5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D5">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>256</v>
       </c>
-      <c r="B5">
-        <v>9.0603000000000003E-2</v>
+      <c r="B6">
+        <v>0.15</v>
+      </c>
+      <c r="C6">
+        <v>0.09</v>
+      </c>
+      <c r="D6">
+        <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>512</v>
       </c>
-      <c r="B6">
-        <v>0.181946</v>
+      <c r="B7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C7">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1024</v>
       </c>
-      <c r="B7">
-        <v>0.36306899999999998</v>
+      <c r="B8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D8">
+        <v>0.55000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/График.xlsx
+++ b/График.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Svalkash\Desktop\HST-Potapov-1\HST-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BF91D6-D35E-4B74-898F-019771042135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9B11CE-0817-41CA-A109-5EF6AA63F53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97C02EC0-2333-407A-9E26-27B098D32470}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Размер</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Seq</t>
+  </si>
+  <si>
+    <t>CUDA</t>
   </si>
 </sst>
 </file>
@@ -499,6 +502,111 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BBB5-410D-AFE4-9B37DA1E4517}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56A5-4DB1-B538-5BBD4FF65CDE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1595,15 +1703,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805DDB5F-FF2B-45B4-8D18-DC05C3407E14}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1616,8 +1724,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1630,8 +1741,11 @@
       <c r="D2">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="E2">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>32</v>
       </c>
@@ -1644,8 +1758,11 @@
       <c r="D3">
         <v>0.02</v>
       </c>
+      <c r="E3">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>64</v>
       </c>
@@ -1658,8 +1775,11 @@
       <c r="D4">
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="E4">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>128</v>
       </c>
@@ -1672,8 +1792,11 @@
       <c r="D5">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="E5">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>256</v>
       </c>
@@ -1686,8 +1809,11 @@
       <c r="D6">
         <v>0.11700000000000001</v>
       </c>
+      <c r="E6">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>512</v>
       </c>
@@ -1700,8 +1826,11 @@
       <c r="D7">
         <v>0.27800000000000002</v>
       </c>
+      <c r="E7">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1024</v>
       </c>
@@ -1713,6 +1842,9 @@
       </c>
       <c r="D8">
         <v>0.55000000000000004</v>
+      </c>
+      <c r="E8">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>

--- a/График.xlsx
+++ b/График.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Svalkash\Desktop\HST-Potapov-1\HST-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9B11CE-0817-41CA-A109-5EF6AA63F53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592D89DC-6755-4F6D-BBF8-B1CC4FA702F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97C02EC0-2333-407A-9E26-27B098D32470}"/>
+    <workbookView xWindow="28680" yWindow="-3210" windowWidth="15600" windowHeight="18840" xr2:uid="{97C02EC0-2333-407A-9E26-27B098D32470}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -580,25 +580,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.03</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.03</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.06</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1705,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805DDB5F-FF2B-45B4-8D18-DC05C3407E14}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1742,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E2">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1776,7 +1776,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E4">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1793,7 +1793,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E5">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>0.11700000000000001</v>
       </c>
       <c r="E6">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1827,7 +1827,7 @@
         <v>0.27800000000000002</v>
       </c>
       <c r="E7">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1844,7 +1844,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E8">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/График.xlsx
+++ b/График.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Svalkash\Desktop\HST-Potapov-1\HST-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592D89DC-6755-4F6D-BBF8-B1CC4FA702F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1295E62-F282-4D12-B46A-B6A1DCF32A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3210" windowWidth="15600" windowHeight="18840" xr2:uid="{97C02EC0-2333-407A-9E26-27B098D32470}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{97C02EC0-2333-407A-9E26-27B098D32470}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Размер</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>CUDA</t>
+  </si>
+  <si>
+    <t>MPI-CUDA</t>
   </si>
 </sst>
 </file>
@@ -607,6 +610,111 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-56A5-4DB1-B538-5BBD4FF65CDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI-CUDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B55-4643-863A-847A30EF7F55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1703,15 +1811,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805DDB5F-FF2B-45B4-8D18-DC05C3407E14}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1727,8 +1838,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1744,8 +1858,11 @@
       <c r="E2">
         <v>0.01</v>
       </c>
+      <c r="F2">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>32</v>
       </c>
@@ -1761,8 +1878,11 @@
       <c r="E3">
         <v>0.02</v>
       </c>
+      <c r="F3">
+        <v>1.24</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>64</v>
       </c>
@@ -1778,8 +1898,11 @@
       <c r="E4">
         <v>0.04</v>
       </c>
+      <c r="F4">
+        <v>1.25</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>128</v>
       </c>
@@ -1795,8 +1918,11 @@
       <c r="E5">
         <v>0.05</v>
       </c>
+      <c r="F5">
+        <v>1.29</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>256</v>
       </c>
@@ -1812,8 +1938,11 @@
       <c r="E6">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="F6">
+        <v>1.32</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>512</v>
       </c>
@@ -1829,8 +1958,11 @@
       <c r="E7">
         <v>0.12</v>
       </c>
+      <c r="F7">
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1024</v>
       </c>
@@ -1845,6 +1977,9 @@
       </c>
       <c r="E8">
         <v>0.3</v>
+      </c>
+      <c r="F8">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
